--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H2">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I2">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J2">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>59.36469441495555</v>
+        <v>40.7736930430649</v>
       </c>
       <c r="R2">
-        <v>534.2822497346</v>
+        <v>366.9632373875841</v>
       </c>
       <c r="S2">
-        <v>0.005425599455968064</v>
+        <v>0.00404089963732892</v>
       </c>
       <c r="T2">
-        <v>0.005425599455968064</v>
+        <v>0.00404089963732892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H3">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I3">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J3">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>62.57258698714999</v>
+        <v>44.11642038201801</v>
       </c>
       <c r="R3">
-        <v>563.15328288435</v>
+        <v>397.047783438162</v>
       </c>
       <c r="S3">
-        <v>0.005718782809576256</v>
+        <v>0.004372182498496252</v>
       </c>
       <c r="T3">
-        <v>0.005718782809576256</v>
+        <v>0.004372182498496252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H4">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I4">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J4">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>40.42746652333889</v>
+        <v>19.01801042254378</v>
       </c>
       <c r="R4">
-        <v>363.84719871005</v>
+        <v>171.162093802894</v>
       </c>
       <c r="S4">
-        <v>0.003694843248783509</v>
+        <v>0.001884790552035756</v>
       </c>
       <c r="T4">
-        <v>0.00369484324878351</v>
+        <v>0.001884790552035757</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H5">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I5">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J5">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>21.66067571738888</v>
+        <v>14.93431924353622</v>
       </c>
       <c r="R5">
-        <v>194.9460814565</v>
+        <v>134.408873191826</v>
       </c>
       <c r="S5">
-        <v>0.00197966403341847</v>
+        <v>0.001480074055377339</v>
       </c>
       <c r="T5">
-        <v>0.00197966403341847</v>
+        <v>0.001480074055377339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H6">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I6">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J6">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>31.53241369377222</v>
+        <v>17.83136408003734</v>
       </c>
       <c r="R6">
-        <v>283.79172324395</v>
+        <v>160.482276720336</v>
       </c>
       <c r="S6">
-        <v>0.002881885407957062</v>
+        <v>0.001767187303048538</v>
       </c>
       <c r="T6">
-        <v>0.002881885407957062</v>
+        <v>0.001767187303048539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I7">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J7">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>2730.229035915618</v>
+        <v>2659.71276638257</v>
       </c>
       <c r="R7">
-        <v>24572.06132324056</v>
+        <v>23937.41489744313</v>
       </c>
       <c r="S7">
-        <v>0.2495275907324501</v>
+        <v>0.2635923202179123</v>
       </c>
       <c r="T7">
-        <v>0.2495275907324501</v>
+        <v>0.2635923202179124</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I8">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J8">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>2877.762540989921</v>
@@ -948,10 +948,10 @@
         <v>25899.86286890929</v>
       </c>
       <c r="S8">
-        <v>0.2630113239977652</v>
+        <v>0.2852022649977455</v>
       </c>
       <c r="T8">
-        <v>0.2630113239977652</v>
+        <v>0.2852022649977455</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I9">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J9">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>1859.291015279272</v>
+        <v>1240.565701483347</v>
       </c>
       <c r="R9">
-        <v>16733.61913751345</v>
+        <v>11165.09131335013</v>
       </c>
       <c r="S9">
-        <v>0.1699287500828801</v>
+        <v>0.1229469571939941</v>
       </c>
       <c r="T9">
-        <v>0.1699287500828802</v>
+        <v>0.1229469571939941</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I10">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J10">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>996.1915304034464</v>
+        <v>974.1820420169726</v>
       </c>
       <c r="R10">
-        <v>8965.723773631018</v>
+        <v>8767.638378152753</v>
       </c>
       <c r="S10">
-        <v>0.09104630755136651</v>
+        <v>0.09654685574154273</v>
       </c>
       <c r="T10">
-        <v>0.09104630755136651</v>
+        <v>0.09654685574154276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I11">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J11">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>1450.200532280541</v>
+        <v>1163.159457633616</v>
       </c>
       <c r="R11">
-        <v>13051.80479052486</v>
+        <v>10468.43511870254</v>
       </c>
       <c r="S11">
-        <v>0.1325401789148886</v>
+        <v>0.1152755681351466</v>
       </c>
       <c r="T11">
-        <v>0.1325401789148886</v>
+        <v>0.1152755681351467</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H12">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I12">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J12">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>223.7239969382969</v>
+        <v>309.7231777571271</v>
       </c>
       <c r="R12">
-        <v>2013.515972444672</v>
+        <v>2787.508599814144</v>
       </c>
       <c r="S12">
-        <v>0.02044711605168521</v>
+        <v>0.03069528863498448</v>
       </c>
       <c r="T12">
-        <v>0.02044711605168521</v>
+        <v>0.03069528863498448</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H13">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I13">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J13">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>235.813380284288</v>
+        <v>335.115043357888</v>
       </c>
       <c r="R13">
-        <v>2122.320422558592</v>
+        <v>3016.035390220992</v>
       </c>
       <c r="S13">
-        <v>0.02155201775043756</v>
+        <v>0.03321176366678617</v>
       </c>
       <c r="T13">
-        <v>0.02155201775043756</v>
+        <v>0.03321176366678617</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H14">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I14">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J14">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>152.3564550584462</v>
+        <v>144.4637015456782</v>
       </c>
       <c r="R14">
-        <v>1371.208095526016</v>
+        <v>1300.173313911104</v>
       </c>
       <c r="S14">
-        <v>0.01392452379018867</v>
+        <v>0.01431715588201828</v>
       </c>
       <c r="T14">
-        <v>0.01392452379018867</v>
+        <v>0.01431715588201828</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H15">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I15">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J15">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>81.63122872334222</v>
+        <v>113.4433618476018</v>
       </c>
       <c r="R15">
-        <v>734.68105851008</v>
+        <v>1020.990256628416</v>
       </c>
       <c r="S15">
-        <v>0.007460635559841985</v>
+        <v>0.01124286777906467</v>
       </c>
       <c r="T15">
-        <v>0.007460635559841985</v>
+        <v>0.01124286777906467</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H16">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I16">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J16">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>118.8342278892516</v>
+        <v>135.4497553307307</v>
       </c>
       <c r="R16">
-        <v>1069.508051003264</v>
+        <v>1219.047797976576</v>
       </c>
       <c r="S16">
-        <v>0.01086078061279263</v>
+        <v>0.01342382370451813</v>
       </c>
       <c r="T16">
-        <v>0.01086078061279263</v>
+        <v>0.01342382370451813</v>
       </c>
     </row>
   </sheetData>
